--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLogIn" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:P18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,12 +21,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
   <si>
     <t>sharan</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>pointofsale</t>
   </si>
 </sst>
 </file>
@@ -344,7 +355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -366,4 +377,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="5860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC1" sheetId="1" r:id="rId1"/>
     <sheet name="ValidLogIn" sheetId="2" r:id="rId2"/>
+    <sheet name="InvalidLogin" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -32,10 +32,16 @@
     <t>password</t>
   </si>
   <si>
+    <t>pointofsale</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>pointofsale</t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,45 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -32,16 +32,16 @@
     <t>password</t>
   </si>
   <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>pointofsale</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -409,10 +409,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -444,10 +444,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
